--- a/marking_system_desktop/static/markExcel.xlsx
+++ b/marking_system_desktop/static/markExcel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouxinyu/dev/MARKING_SYSTEM/marking_system_desktop/src/node/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouxinyu/dev/MARKING_SYSTEM/marking_system_desktop/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFBF9E-356E-0848-9C77-29F01A57CB1F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27320" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-30920" yWindow="11760" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>面试者</t>
     <rPh sb="0" eb="1">
@@ -159,13 +160,21 @@
   </si>
   <si>
     <t>&lt;%=rs1.average_score%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.person_id%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -229,6 +238,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,97 +508,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/marking_system_desktop/static/markExcel.xlsx
+++ b/marking_system_desktop/static/markExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouxinyu/dev/MARKING_SYSTEM/marking_system_desktop/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFBF9E-356E-0848-9C77-29F01A57CB1F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93503D-561C-434D-AAF5-380D5B23368B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30920" yWindow="11760" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -587,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
